--- a/docs/VCO Pickoff Plan.xlsx
+++ b/docs/VCO Pickoff Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\twangilizer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7732CF90-34A4-4539-98D3-98D7C6BF0A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A35A7B-C347-4F41-AA50-E5E2D5753A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA5561A4-B993-4307-B152-7FDF4A9048DC}"/>
   </bookViews>
@@ -143,6 +143,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Transfer Curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -181,6 +206,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>vs Input</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -195,10 +223,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$27</c:f>
+              <c:f>Sheet1!$J$2:$J$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -276,16 +304,196 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.4999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.5999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.6999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.7999999999999954</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.9999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.2999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.3999999999999932</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.4999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.6999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.7999999999999918</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.8999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.9999999999999911</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.0999999999999908</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.4999999999999893</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.599999999999989</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.6999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.7999999999999883</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.8999999999999879</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.9999999999999876</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.0999999999999872</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.1999999999999869</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.2999999999999865</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.3999999999999861</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.4999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.5999999999999854</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.6999999999999851</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.7999999999999847</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.8999999999999844</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.999999999999984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$27</c:f>
+              <c:f>Sheet1!$L$2:$L$87</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>-10.3</c:v>
                 </c:pt>
@@ -299,69 +507,249 @@
                   <c:v>-10.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10.3</c:v>
+                  <c:v>-10.178953635577392</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10.3</c:v>
+                  <c:v>-9.7795089056291609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.1750286452691565</c:v>
+                  <c:v>-9.3800641756809302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.4729583346369592</c:v>
+                  <c:v>-8.9806194457326995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.770888024004762</c:v>
+                  <c:v>-8.5811747157844547</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.0688177133725656</c:v>
+                  <c:v>-8.181729985836224</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.3667474027404038</c:v>
+                  <c:v>-7.7822852558879898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.6646770921081715</c:v>
+                  <c:v>-7.3828405259397591</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0373932185240253</c:v>
+                  <c:v>-6.983395795991524</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7394635291562222</c:v>
+                  <c:v>-6.5839510660432889</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4415338397883835</c:v>
+                  <c:v>-6.1845063360950583</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.1436041504205798</c:v>
+                  <c:v>-5.7850616061468276</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.8456744610527771</c:v>
+                  <c:v>-5.3856168761985925</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.5477447716849735</c:v>
+                  <c:v>-4.9861721462503574</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>-4.5867274163021223</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.187282686353897</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.7878379564056619</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.3883932264574166</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.9889484965091913</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.5895037665609562</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.1900590366127206</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.7906143066644855</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.3911695767162602</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.99172484676802486</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.59228011681978965</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.19283538687155438</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20660934307668083</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.6060540730249161</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0054988029731513</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.4049435329213866</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.804388262869612</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2038329928178473</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.6032777227660824</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0027224527143077</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.4021671826625433</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.8016119126107686</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.2010566425590037</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.6005013725072388</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9999461024554641</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.3993908324036992</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.7988355623519352</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.1982802923001605</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.5977250222483956</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.997169752196621</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.3966144821448561</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.7960592120930912</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.1955039420413165</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.5949486719895525</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.9943934019377867</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.393838131886012</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.793282861834248</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.192727591782473</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>10.3</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="57">
                   <c:v>10.3</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="58">
                   <c:v>10.3</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="59">
                   <c:v>10.3</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="60">
                   <c:v>10.3</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="61">
                   <c:v>10.3</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="62">
                   <c:v>10.3</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="63">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>10.3</c:v>
                 </c:pt>
               </c:numCache>
@@ -370,13 +758,16 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD8F-4D65-9C5F-BE6BBD1E5AE9}"/>
+              <c16:uniqueId val="{00000001-891F-48C5-AF1D-6790D1D06374}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>vs Freq</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -391,10 +782,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$27</c:f>
+              <c:f>Sheet1!$J$2:$J$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -472,93 +863,453 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3.0000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.9000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.1000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.8999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.0999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.2999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.3999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.4999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.5999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.6999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.7999999999999954</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.9999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.0999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.2999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.3999999999999932</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.4999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5999999999999925</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.6999999999999922</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.7999999999999918</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.8999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.9999999999999911</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.0999999999999908</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.1999999999999904</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.3999999999999897</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.4999999999999893</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.599999999999989</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.6999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.7999999999999883</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.8999999999999879</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.9999999999999876</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.0999999999999872</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.1999999999999869</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.2999999999999865</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.3999999999999861</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.4999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.5999999999999854</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.6999999999999851</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.7999999999999847</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.8999999999999844</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.999999999999984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$27</c:f>
+              <c:f>Sheet1!$M$2:$M$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
-                  <c:v>-19.5</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-17.8</c:v>
+                  <c:v>-11.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-16.100000000000001</c:v>
+                  <c:v>-11.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-14.4</c:v>
+                  <c:v>-10.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12.700000000000001</c:v>
+                  <c:v>-10.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-11.000000000000004</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.3000000000000007</c:v>
+                  <c:v>-9.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.6000000000000014</c:v>
+                  <c:v>-9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.8999999999999986</c:v>
+                  <c:v>-8.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.1999999999999993</c:v>
+                  <c:v>-8.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.4999999999999964</c:v>
+                  <c:v>-7.9999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>-7.5999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.1999999999999984</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.3999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.5999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-4.3999999999999968</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.9999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.5999999999999961</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.1999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7999999999999954</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.9999999999999947</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.5999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>-0.79999999999999361</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.90000000000000568</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.6000000000000085</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.3000000000000114</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.0000000000000071</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.7000000000000099</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.4000000000000128</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.100000000000009</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.800000000000011</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14.500000000000014</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16.200000000000017</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.90000000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>19.600000000000023</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21.300000000000018</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>23.000000000000021</c:v>
+                <c:pt idx="29">
+                  <c:v>-0.39999999999999325</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.40000000000000746</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.80000000000000782</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2000000000000082</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6000000000000085</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0000000000000071</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.8000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.2000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.7999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.1999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.5999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.9999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.3999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.1999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.5999999999999872</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.9999999999999858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.3999999999999844</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.7999999999999829</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.1999999999999815</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.5999999999999801</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.9999999999999787</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10.399999999999977</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.799999999999976</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.199999999999974</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.599999999999973</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12.39999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12.799999999999969</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.199999999999967</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13.599999999999966</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13.999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.399999999999963</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.799999999999962</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15.19999999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>15.599999999999959</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15.999999999999957</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>16.399999999999956</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>16.799999999999955</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>17.199999999999953</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17.599999999999952</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.99999999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18.399999999999949</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18.799999999999947</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19.199999999999946</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.599999999999945</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>19.999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20.399999999999942</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>20.79999999999994</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>21.199999999999939</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>21.599999999999937</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>21.999999999999936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -566,7 +1317,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AD8F-4D65-9C5F-BE6BBD1E5AE9}"/>
+              <c16:uniqueId val="{00000002-891F-48C5-AF1D-6790D1D06374}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -578,11 +1329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1167833568"/>
-        <c:axId val="1167839200"/>
+        <c:axId val="982989352"/>
+        <c:axId val="982987240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1167833568"/>
+        <c:axId val="982989352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,12 +1390,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167839200"/>
+        <c:crossAx val="982987240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1167839200"/>
+        <c:axId val="982987240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +1452,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1167833568"/>
+        <c:crossAx val="982989352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1349,22 +2100,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A54F35A-B130-045F-A748-BA7ED07C2202}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F92347C-D61E-DF40-591E-754A896819D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,9 +2137,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1426,7 +2177,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1532,7 +2283,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1674,7 +2425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1682,10 +2433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C32F6D1-CBEB-43CD-B632-09CA3A552995}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,16 +2487,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>52300</v>
+        <v>221000</v>
       </c>
       <c r="B2" s="1">
         <v>1000000</v>
       </c>
       <c r="C2" s="1">
-        <v>499000</v>
+        <v>1000000</v>
       </c>
       <c r="D2" s="1">
-        <v>2740000</v>
+        <v>2610000</v>
       </c>
       <c r="E2" s="1">
         <v>1.07</v>
@@ -1755,11 +2506,11 @@
       </c>
       <c r="G2" s="1">
         <f>((E2-F2)/(C2+D2))*D2 + F2</f>
-        <v>-0.48138314294535256</v>
+        <v>-1.7194736842105263</v>
       </c>
       <c r="H2" s="2">
         <f>G2*(1+B2/A2)</f>
-        <v>-9.6856497384587854</v>
+        <v>-9.4998975946653967</v>
       </c>
       <c r="I2" s="2">
         <f>E2*17-28</f>
@@ -1770,15 +2521,15 @@
       </c>
       <c r="K2" s="1">
         <f>((J2-$F$2)/($C$2+$D$2))*$D$2 + $F$2</f>
-        <v>-0.96356900277863566</v>
+        <v>-2.1315789473684212</v>
       </c>
       <c r="L2" s="1">
         <f>MIN(10.3,MAX(-10.3,K2*(1+$B$2/$A$2)))</f>
         <v>-10.3</v>
       </c>
       <c r="M2">
-        <f>J2*17-28</f>
-        <v>-19.5</v>
+        <f>J2*4-14</f>
+        <v>-12</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1787,26 +2538,26 @@
         <v>0.6</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K27" si="0">((J3-$F$2)/($C$2+$D$2))*$D$2 + $F$2</f>
-        <v>-0.87897499228156839</v>
+        <f t="shared" ref="K3:K66" si="0">((J3-$F$2)/($C$2+$D$2))*$D$2 + $F$2</f>
+        <v>-2.0592797783933516</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L27" si="1">MIN(10.3,MAX(-10.3,K3*(1+$B$2/$A$2)))</f>
+        <f t="shared" ref="L3:L66" si="1">MIN(10.3,MAX(-10.3,K3*(1+$B$2/$A$2)))</f>
         <v>-10.3</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M27" si="2">J3*17-28</f>
-        <v>-17.8</v>
+        <f t="shared" ref="M3:M66" si="2">J3*4-14</f>
+        <v>-11.6</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J4">
-        <f t="shared" ref="J4:J27" si="3">J3+0.1</f>
+        <f t="shared" ref="J4:J67" si="3">J3+0.1</f>
         <v>0.7</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>-0.79438098178450289</v>
+        <v>-1.9869806094182829</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
@@ -1814,7 +2565,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>-16.100000000000001</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1824,7 +2575,7 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>-0.70978697128743384</v>
+        <v>-1.9146814404432133</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
@@ -1832,7 +2583,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>-14.4</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1842,15 +2593,15 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>-0.62519296079036657</v>
+        <v>-1.8423822714681437</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>-10.3</v>
+        <v>-10.178953635577392</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>-12.700000000000001</v>
+        <v>-10.4</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1860,15 +2611,15 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>-0.54059895029330107</v>
+        <v>-1.770083102493075</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="1"/>
-        <v>-10.3</v>
+        <v>-9.7795089056291609</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>-11.000000000000004</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1878,15 +2629,15 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>-0.4560049397962338</v>
+        <v>-1.6977839335180063</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="1"/>
-        <v>-9.1750286452691565</v>
+        <v>-9.3800641756809302</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>-9.3000000000000007</v>
+        <v>-9.6000000000000014</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1896,15 +2647,15 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>-0.37141092929916653</v>
+        <v>-1.6254847645429376</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="1"/>
-        <v>-7.4729583346369592</v>
+        <v>-8.9806194457326995</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>-7.6000000000000014</v>
+        <v>-9.1999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1914,15 +2665,15 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>-0.28681691880209925</v>
+        <v>-1.5531855955678662</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="1"/>
-        <v>-5.770888024004762</v>
+        <v>-8.5811747157844547</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>-5.8999999999999986</v>
+        <v>-8.8000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1932,15 +2683,15 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="0"/>
-        <v>-0.20222290830503198</v>
+        <v>-1.4808864265927975</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="1"/>
-        <v>-4.0688177133725656</v>
+        <v>-8.181729985836224</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>-4.1999999999999993</v>
+        <v>-8.3999999999999986</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1950,15 +2701,15 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="0"/>
-        <v>-0.11762889780796648</v>
+        <v>-1.4085872576177279</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="1"/>
-        <v>-2.3667474027404038</v>
+        <v>-7.7822852558879898</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>-2.4999999999999964</v>
+        <v>-7.9999999999999991</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1968,15 +2719,15 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="0"/>
-        <v>-3.3034887310897432E-2</v>
+        <v>-1.3362880886426591</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="1"/>
-        <v>-0.6646770921081715</v>
+        <v>-7.3828405259397591</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>-0.79999999999999361</v>
+        <v>-7.5999999999999988</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1986,15 +2737,15 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="0"/>
-        <v>5.1559123186169842E-2</v>
+        <v>-1.2639889196675895</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="1"/>
-        <v>1.0373932185240253</v>
+        <v>-6.983395795991524</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>0.90000000000000568</v>
+        <v>-7.1999999999999984</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2004,15 +2755,15 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" si="0"/>
-        <v>0.13615313368323712</v>
+        <v>-1.1916897506925199</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="1"/>
-        <v>2.7394635291562222</v>
+        <v>-6.5839510660432889</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>2.6000000000000085</v>
+        <v>-6.799999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2022,222 +2773,1300 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>0.22074714418030261</v>
+        <v>-1.1193905817174512</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="1"/>
-        <v>4.4415338397883835</v>
+        <v>-6.1845063360950583</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>4.3000000000000114</v>
-      </c>
-    </row>
-    <row r="17" spans="9:13" x14ac:dyDescent="0.25">
+        <v>-6.3999999999999977</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
       <c r="J17">
         <f t="shared" si="3"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="0"/>
-        <v>0.30534115467736989</v>
+        <v>-1.0470914127423825</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="1"/>
-        <v>6.1436041504205798</v>
+        <v>-5.7850616061468276</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>6.0000000000000071</v>
-      </c>
-    </row>
-    <row r="18" spans="9:13" x14ac:dyDescent="0.25">
+        <v>-5.9999999999999982</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
       <c r="J18">
         <f t="shared" si="3"/>
         <v>2.1000000000000005</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>0.38993516517443716</v>
+        <v>-0.97479224376731288</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="1"/>
-        <v>7.8456744610527771</v>
+        <v>-5.3856168761985925</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>7.7000000000000099</v>
-      </c>
-    </row>
-    <row r="19" spans="9:13" x14ac:dyDescent="0.25">
+        <v>-5.5999999999999979</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
       <c r="J19">
         <f t="shared" si="3"/>
         <v>2.2000000000000006</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>0.47452917567150443</v>
+        <v>-0.90249307479224328</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="1"/>
-        <v>9.5477447716849735</v>
+        <v>-4.9861721462503574</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
-        <v>9.4000000000000128</v>
-      </c>
-    </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.25">
+        <v>-5.1999999999999975</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
       <c r="J20">
         <f t="shared" si="3"/>
         <v>2.3000000000000007</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>0.55912318616857171</v>
+        <v>-0.83019390581717367</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="1"/>
+        <v>-4.5867274163021223</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>-4.7999999999999972</v>
+      </c>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>2.4000000000000008</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.75789473684210584</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.187282686353897</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>-4.3999999999999968</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000009</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.68559556786703624</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.7878379564056619</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>-3.9999999999999964</v>
+      </c>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>2.600000000000001</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.61329639889196486</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.3883932264574166</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>-3.5999999999999961</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.54099722991689703</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.9889484965091913</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>-3.1999999999999957</v>
+      </c>
+    </row>
+    <row r="25" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>2.8000000000000012</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.46869806094182742</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.5895037665609562</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>-2.7999999999999954</v>
+      </c>
+    </row>
+    <row r="26" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>2.9000000000000012</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.39639889196675782</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.1900590366127206</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>-2.399999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000013</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.32409972299168821</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.7906143066644855</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>-1.9999999999999947</v>
+      </c>
+    </row>
+    <row r="28" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.25180055401662038</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.3911695767162602</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>-1.5999999999999943</v>
+      </c>
+    </row>
+    <row r="29" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="2">
+        <f>(L17-L12)/0.5</f>
+        <v>3.9944472994823244</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>3.2000000000000015</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.17950138504155078</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.99172484676802486</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>-1.199999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>3.3000000000000016</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.10720221606648117</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.59228011681978965</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>-0.79999999999999361</v>
+      </c>
+    </row>
+    <row r="31" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>3.4000000000000017</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.4903047091411565E-2</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.19283538687155438</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>-0.39999999999999325</v>
+      </c>
+    </row>
+    <row r="32" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>3.5000000000000018</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="0"/>
+        <v>3.739612188365804E-2</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20660934307668083</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>3.6000000000000019</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10969529085872765</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6060540730249161</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000746</v>
+      </c>
+    </row>
+    <row r="34" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>3.700000000000002</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.18199445983379725</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0054988029731513</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>0.80000000000000782</v>
+      </c>
+    </row>
+    <row r="35" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>3.800000000000002</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25429362880886686</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4049435329213866</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>1.2000000000000082</v>
+      </c>
+    </row>
+    <row r="36" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>3.9000000000000021</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32659279778393469</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="1"/>
+        <v>1.804388262869612</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000085</v>
+      </c>
+    </row>
+    <row r="37" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39889196675900429</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2038329928178473</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000071</v>
+      </c>
+    </row>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.4711911357340739</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6032777227660824</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>2.4000000000000057</v>
+      </c>
+    </row>
+    <row r="39" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54349030470914172</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0027224527143077</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>2.8000000000000043</v>
+      </c>
+    </row>
+    <row r="40" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61578947368421133</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4021671826625433</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>3.2000000000000028</v>
+      </c>
+    </row>
+    <row r="41" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68808864265927916</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8016119126107686</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="42" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.76038781163434876</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2010566425590037</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.83268698060941837</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6005013725072388</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="2"/>
+        <v>4.3999999999999986</v>
+      </c>
+    </row>
+    <row r="44" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9049861495844862</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="1"/>
+        <v>4.9999461024554641</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="2"/>
+        <v>4.7999999999999972</v>
+      </c>
+    </row>
+    <row r="45" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>4.7999999999999989</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9772853185595558</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3993908324036992</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="2"/>
+        <v>5.1999999999999957</v>
+      </c>
+    </row>
+    <row r="46" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>4.8999999999999986</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0495844875346254</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7988355623519352</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="2"/>
+        <v>5.5999999999999943</v>
+      </c>
+    </row>
+    <row r="47" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999982</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1218836565096932</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1982802923001605</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="2"/>
+        <v>5.9999999999999929</v>
+      </c>
+    </row>
+    <row r="48" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999979</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1941828254847628</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5977250222483956</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="2"/>
+        <v>6.3999999999999915</v>
+      </c>
+    </row>
+    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>5.1999999999999975</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2664819944598307</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="1"/>
+        <v>6.997169752196621</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="2"/>
+        <v>6.7999999999999901</v>
+      </c>
+    </row>
+    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>5.2999999999999972</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3387811634349003</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3966144821448561</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999886</v>
+      </c>
+    </row>
+    <row r="51" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>5.3999999999999968</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4110803324099699</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="1"/>
+        <v>7.7960592120930912</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="2"/>
+        <v>7.5999999999999872</v>
+      </c>
+    </row>
+    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>5.4999999999999964</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4833795013850377</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="1"/>
+        <v>8.1955039420413165</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="2"/>
+        <v>7.9999999999999858</v>
+      </c>
+    </row>
+    <row r="53" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>5.5999999999999961</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5556786703601073</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5949486719895525</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="2"/>
+        <v>8.3999999999999844</v>
+      </c>
+    </row>
+    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>5.6999999999999957</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6279778393351769</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="1"/>
+        <v>8.9943934019377867</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="2"/>
+        <v>8.7999999999999829</v>
+      </c>
+    </row>
+    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>5.7999999999999954</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7002770083102448</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="1"/>
+        <v>9.393838131886012</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="2"/>
+        <v>9.1999999999999815</v>
+      </c>
+    </row>
+    <row r="56" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>5.899999999999995</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7725761772853144</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="1"/>
+        <v>9.793282861834248</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="2"/>
+        <v>9.5999999999999801</v>
+      </c>
+    </row>
+    <row r="57" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>5.9999999999999947</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8448753462603822</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" si="1"/>
+        <v>10.192727591782473</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999787</v>
+      </c>
+    </row>
+    <row r="58" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9171745152354518</v>
+      </c>
+      <c r="L58" s="1">
+        <f t="shared" si="1"/>
         <v>10.3</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="2"/>
-        <v>11.100000000000009</v>
-      </c>
-    </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J21">
-        <f t="shared" si="3"/>
-        <v>2.4000000000000008</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.6437171966656372</v>
-      </c>
-      <c r="L21" s="1">
+      <c r="M58">
+        <f t="shared" si="2"/>
+        <v>10.399999999999977</v>
+      </c>
+    </row>
+    <row r="59" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>6.199999999999994</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9894736842105232</v>
+      </c>
+      <c r="L59" s="1">
         <f t="shared" si="1"/>
         <v>10.3</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="2"/>
-        <v>12.800000000000011</v>
-      </c>
-    </row>
-    <row r="22" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J22">
-        <f t="shared" si="3"/>
-        <v>2.5000000000000009</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="0"/>
-        <v>0.72831120716270448</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="M59">
+        <f t="shared" si="2"/>
+        <v>10.799999999999976</v>
+      </c>
+    </row>
+    <row r="60" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>6.2999999999999936</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0617728531855928</v>
+      </c>
+      <c r="L60" s="1">
         <f t="shared" si="1"/>
         <v>10.3</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="2"/>
-        <v>14.500000000000014</v>
-      </c>
-    </row>
-    <row r="23" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J23">
-        <f t="shared" si="3"/>
-        <v>2.600000000000001</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.81290521765977175</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="M60">
+        <f t="shared" si="2"/>
+        <v>11.199999999999974</v>
+      </c>
+    </row>
+    <row r="61" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>6.3999999999999932</v>
+      </c>
+      <c r="K61" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1340720221606606</v>
+      </c>
+      <c r="L61" s="1">
         <f t="shared" si="1"/>
         <v>10.3</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="2"/>
-        <v>16.200000000000017</v>
-      </c>
-    </row>
-    <row r="24" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J24">
-        <f t="shared" si="3"/>
-        <v>2.7000000000000011</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="0"/>
-        <v>0.89749922815683902</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="M61">
+        <f t="shared" si="2"/>
+        <v>11.599999999999973</v>
+      </c>
+    </row>
+    <row r="62" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>6.4999999999999929</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2063711911357302</v>
+      </c>
+      <c r="L62" s="1">
         <f t="shared" si="1"/>
         <v>10.3</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="2"/>
-        <v>17.90000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J25">
-        <f t="shared" si="3"/>
-        <v>2.8000000000000012</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="0"/>
-        <v>0.9820932386539063</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="M62">
+        <f t="shared" si="2"/>
+        <v>11.999999999999972</v>
+      </c>
+    </row>
+    <row r="63" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>6.5999999999999925</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="0"/>
+        <v>2.278670360110798</v>
+      </c>
+      <c r="L63" s="1">
         <f t="shared" si="1"/>
         <v>10.3</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="2"/>
-        <v>19.600000000000023</v>
-      </c>
-    </row>
-    <row r="26" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J26">
-        <f t="shared" si="3"/>
-        <v>2.9000000000000012</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0666872491509753</v>
-      </c>
-      <c r="L26" s="1">
+      <c r="M63">
+        <f t="shared" si="2"/>
+        <v>12.39999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>6.6999999999999922</v>
+      </c>
+      <c r="K64" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3509695290858676</v>
+      </c>
+      <c r="L64" s="1">
         <f t="shared" si="1"/>
         <v>10.3</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="2"/>
-        <v>21.300000000000018</v>
-      </c>
-    </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J27">
-        <f t="shared" si="3"/>
-        <v>3.0000000000000013</v>
-      </c>
-      <c r="K27" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1512812596480408</v>
-      </c>
-      <c r="L27" s="1">
+      <c r="M64">
+        <f t="shared" si="2"/>
+        <v>12.799999999999969</v>
+      </c>
+    </row>
+    <row r="65" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>6.7999999999999918</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4232686980609373</v>
+      </c>
+      <c r="L65" s="1">
         <f t="shared" si="1"/>
         <v>10.3</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="2"/>
-        <v>23.000000000000021</v>
-      </c>
-    </row>
-    <row r="29" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="2">
-        <f>(L17-L12)/0.5</f>
-        <v>17.020703106321967</v>
+      <c r="M65">
+        <f t="shared" si="2"/>
+        <v>13.199999999999967</v>
+      </c>
+    </row>
+    <row r="66" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>6.8999999999999915</v>
+      </c>
+      <c r="K66" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4955678670360051</v>
+      </c>
+      <c r="L66" s="1">
+        <f t="shared" si="1"/>
+        <v>10.3</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="2"/>
+        <v>13.599999999999966</v>
+      </c>
+    </row>
+    <row r="67" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <f t="shared" si="3"/>
+        <v>6.9999999999999911</v>
+      </c>
+      <c r="K67" s="1">
+        <f t="shared" ref="K67:K87" si="4">((J67-$F$2)/($C$2+$D$2))*$D$2 + $F$2</f>
+        <v>2.5678670360110747</v>
+      </c>
+      <c r="L67" s="1">
+        <f t="shared" ref="L67:L87" si="5">MIN(10.3,MAX(-10.3,K67*(1+$B$2/$A$2)))</f>
+        <v>10.3</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M87" si="6">J67*4-14</f>
+        <v>13.999999999999964</v>
+      </c>
+    </row>
+    <row r="68" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <f t="shared" ref="J68:J87" si="7">J67+0.1</f>
+        <v>7.0999999999999908</v>
+      </c>
+      <c r="K68" s="1">
+        <f t="shared" si="4"/>
+        <v>2.6401662049861443</v>
+      </c>
+      <c r="L68" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="6"/>
+        <v>14.399999999999963</v>
+      </c>
+    </row>
+    <row r="69" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <f t="shared" si="7"/>
+        <v>7.1999999999999904</v>
+      </c>
+      <c r="K69" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7124653739612103</v>
+      </c>
+      <c r="L69" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="6"/>
+        <v>14.799999999999962</v>
+      </c>
+    </row>
+    <row r="70" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <f t="shared" si="7"/>
+        <v>7.2999999999999901</v>
+      </c>
+      <c r="K70" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7847645429362817</v>
+      </c>
+      <c r="L70" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="6"/>
+        <v>15.19999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <f t="shared" si="7"/>
+        <v>7.3999999999999897</v>
+      </c>
+      <c r="K71" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8570637119113496</v>
+      </c>
+      <c r="L71" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="6"/>
+        <v>15.599999999999959</v>
+      </c>
+    </row>
+    <row r="72" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999893</v>
+      </c>
+      <c r="K72" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9293628808864192</v>
+      </c>
+      <c r="L72" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="6"/>
+        <v>15.999999999999957</v>
+      </c>
+    </row>
+    <row r="73" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <f t="shared" si="7"/>
+        <v>7.599999999999989</v>
+      </c>
+      <c r="K73" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0016620498614852</v>
+      </c>
+      <c r="L73" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="6"/>
+        <v>16.399999999999956</v>
+      </c>
+    </row>
+    <row r="74" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <f t="shared" si="7"/>
+        <v>7.6999999999999886</v>
+      </c>
+      <c r="K74" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0739612188365566</v>
+      </c>
+      <c r="L74" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="6"/>
+        <v>16.799999999999955</v>
+      </c>
+    </row>
+    <row r="75" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <f t="shared" si="7"/>
+        <v>7.7999999999999883</v>
+      </c>
+      <c r="K75" s="1">
+        <f t="shared" si="4"/>
+        <v>3.1462603878116262</v>
+      </c>
+      <c r="L75" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="6"/>
+        <v>17.199999999999953</v>
+      </c>
+    </row>
+    <row r="76" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <f t="shared" si="7"/>
+        <v>7.8999999999999879</v>
+      </c>
+      <c r="K76" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2185595567866958</v>
+      </c>
+      <c r="L76" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="6"/>
+        <v>17.599999999999952</v>
+      </c>
+    </row>
+    <row r="77" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <f t="shared" si="7"/>
+        <v>7.9999999999999876</v>
+      </c>
+      <c r="K77" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2908587257617619</v>
+      </c>
+      <c r="L77" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="6"/>
+        <v>17.99999999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <f t="shared" si="7"/>
+        <v>8.0999999999999872</v>
+      </c>
+      <c r="K78" s="1">
+        <f t="shared" si="4"/>
+        <v>3.3631578947368332</v>
+      </c>
+      <c r="L78" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="6"/>
+        <v>18.399999999999949</v>
+      </c>
+    </row>
+    <row r="79" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <f t="shared" si="7"/>
+        <v>8.1999999999999869</v>
+      </c>
+      <c r="K79" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4354570637119046</v>
+      </c>
+      <c r="L79" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="6"/>
+        <v>18.799999999999947</v>
+      </c>
+    </row>
+    <row r="80" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <f t="shared" si="7"/>
+        <v>8.2999999999999865</v>
+      </c>
+      <c r="K80" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5077562326869707</v>
+      </c>
+      <c r="L80" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="6"/>
+        <v>19.199999999999946</v>
+      </c>
+    </row>
+    <row r="81" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <f t="shared" si="7"/>
+        <v>8.3999999999999861</v>
+      </c>
+      <c r="K81" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5800554016620367</v>
+      </c>
+      <c r="L81" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="6"/>
+        <v>19.599999999999945</v>
+      </c>
+    </row>
+    <row r="82" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <f t="shared" si="7"/>
+        <v>8.4999999999999858</v>
+      </c>
+      <c r="K82" s="1">
+        <f t="shared" si="4"/>
+        <v>3.6523545706371081</v>
+      </c>
+      <c r="L82" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="6"/>
+        <v>19.999999999999943</v>
+      </c>
+    </row>
+    <row r="83" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <f t="shared" si="7"/>
+        <v>8.5999999999999854</v>
+      </c>
+      <c r="K83" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7246537396121795</v>
+      </c>
+      <c r="L83" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="6"/>
+        <v>20.399999999999942</v>
+      </c>
+    </row>
+    <row r="84" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999851</v>
+      </c>
+      <c r="K84" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7969529085872473</v>
+      </c>
+      <c r="L84" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="6"/>
+        <v>20.79999999999994</v>
+      </c>
+    </row>
+    <row r="85" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <f t="shared" si="7"/>
+        <v>8.7999999999999847</v>
+      </c>
+      <c r="K85" s="1">
+        <f t="shared" si="4"/>
+        <v>3.8692520775623152</v>
+      </c>
+      <c r="L85" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="6"/>
+        <v>21.199999999999939</v>
+      </c>
+    </row>
+    <row r="86" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <f t="shared" si="7"/>
+        <v>8.8999999999999844</v>
+      </c>
+      <c r="K86" s="1">
+        <f t="shared" si="4"/>
+        <v>3.9415512465373848</v>
+      </c>
+      <c r="L86" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="6"/>
+        <v>21.599999999999937</v>
+      </c>
+    </row>
+    <row r="87" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <f t="shared" si="7"/>
+        <v>8.999999999999984</v>
+      </c>
+      <c r="K87" s="1">
+        <f t="shared" si="4"/>
+        <v>4.0138504155124561</v>
+      </c>
+      <c r="L87" s="1">
+        <f t="shared" si="5"/>
+        <v>10.3</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="6"/>
+        <v>21.999999999999936</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VCO Pickoff Plan.xlsx
+++ b/docs/VCO Pickoff Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\twangilizer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A35A7B-C347-4F41-AA50-E5E2D5753A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FE9E5C-D6EC-422C-BA34-E4FDB49B4183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA5561A4-B993-4307-B152-7FDF4A9048DC}"/>
   </bookViews>
@@ -207,7 +207,7 @@
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>vs Input</c:v>
+            <c:v>Actual</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -507,160 +507,160 @@
                   <c:v>-10.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10.178953635577392</c:v>
+                  <c:v>-10.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.7795089056291609</c:v>
+                  <c:v>-10.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.3800641756809302</c:v>
+                  <c:v>-10.257609069048437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.9806194457326995</c:v>
+                  <c:v>-9.8353830298866392</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.5811747157844547</c:v>
+                  <c:v>-9.4131569907248362</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.181729985836224</c:v>
+                  <c:v>-8.9909309515630369</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.7822852558879898</c:v>
+                  <c:v>-8.568704912401234</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.3828405259397591</c:v>
+                  <c:v>-8.1464788732394364</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.983395795991524</c:v>
+                  <c:v>-7.7242528340776326</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.5839510660432889</c:v>
+                  <c:v>-7.3020267949158288</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.1845063360950583</c:v>
+                  <c:v>-6.8798007557540366</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.7850616061468276</c:v>
+                  <c:v>-6.4575747165922381</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5.3856168761985925</c:v>
+                  <c:v>-6.035348677430429</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.9861721462503574</c:v>
+                  <c:v>-5.6131226382686261</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.5867274163021223</c:v>
+                  <c:v>-5.190896599106833</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-4.187282686353897</c:v>
+                  <c:v>-4.7686705599450399</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.7878379564056619</c:v>
+                  <c:v>-4.346444520783237</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.3883932264574166</c:v>
+                  <c:v>-3.9242184816214332</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.9889484965091913</c:v>
+                  <c:v>-3.5019924424596298</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.5895037665609562</c:v>
+                  <c:v>-3.0797664032978265</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.1900590366127206</c:v>
+                  <c:v>-2.6575403641360231</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.7906143066644855</c:v>
+                  <c:v>-2.23531432497423</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.3911695767162602</c:v>
+                  <c:v>-1.8130882858124266</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.99172484676802486</c:v>
+                  <c:v>-1.3908622466506337</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.59228011681978965</c:v>
+                  <c:v>-0.96863620748883028</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.19283538687155438</c:v>
+                  <c:v>-0.54641016832702682</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.20660934307668083</c:v>
+                  <c:v>-0.12418412916522339</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.6060540730249161</c:v>
+                  <c:v>0.2980419099965696</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0054988029731513</c:v>
+                  <c:v>0.72026794915838344</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.4049435329213866</c:v>
+                  <c:v>1.1424939883201763</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.804388262869612</c:v>
+                  <c:v>1.5647200274819695</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.2038329928178473</c:v>
+                  <c:v>1.9869460666437728</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.6032777227660824</c:v>
+                  <c:v>2.4091721058055762</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.0027224527143077</c:v>
+                  <c:v>2.8313981449673693</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.4021671826625433</c:v>
+                  <c:v>3.253624184129162</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.8016119126107686</c:v>
+                  <c:v>3.6758502232909658</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.2010566425590037</c:v>
+                  <c:v>4.0980762624527687</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.6005013725072388</c:v>
+                  <c:v>4.5203023016145725</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.9999461024554641</c:v>
+                  <c:v>4.9425283407763549</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.3993908324036992</c:v>
+                  <c:v>5.3647543799381587</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.7988355623519352</c:v>
+                  <c:v>5.786980419099951</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.1982802923001605</c:v>
+                  <c:v>6.2092064582617548</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.5977250222483956</c:v>
+                  <c:v>6.6314324974235586</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.997169752196621</c:v>
+                  <c:v>7.0536585365853508</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.3966144821448561</c:v>
+                  <c:v>7.4758845757471546</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.7960592120930912</c:v>
+                  <c:v>7.8981106149089575</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.1955039420413165</c:v>
+                  <c:v>8.3203366540707506</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.5949486719895525</c:v>
+                  <c:v>8.7425626932325535</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.9943934019377867</c:v>
+                  <c:v>9.1647887323943582</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.393838131886012</c:v>
+                  <c:v>9.5870147715561398</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.793282861834248</c:v>
+                  <c:v>10.009240810717944</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10.192727591782473</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>10.3</c:v>
@@ -766,7 +766,7 @@
           <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>vs Freq</c:v>
+            <c:v>Target</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1054,262 +1054,262 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="86"/>
                 <c:pt idx="0">
-                  <c:v>-12</c:v>
+                  <c:v>-12.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>-12.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-12.025</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>-11.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>-11.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-10.8</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>-10.4</c:v>
+                  <c:v>-11.175000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10</c:v>
+                  <c:v>-10.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.6000000000000014</c:v>
+                  <c:v>-10.324999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.1999999999999993</c:v>
+                  <c:v>-9.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.8000000000000007</c:v>
+                  <c:v>-9.4749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.3999999999999986</c:v>
+                  <c:v>-9.0500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.9999999999999991</c:v>
+                  <c:v>-8.625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.5999999999999988</c:v>
+                  <c:v>-8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.1999999999999984</c:v>
+                  <c:v>-7.7749999999999986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.799999999999998</c:v>
+                  <c:v>-7.3499999999999979</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.3999999999999977</c:v>
+                  <c:v>-6.9249999999999972</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.9999999999999982</c:v>
+                  <c:v>-6.4999999999999982</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-5.5999999999999979</c:v>
+                  <c:v>-6.0749999999999975</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-5.1999999999999975</c:v>
+                  <c:v>-5.6499999999999968</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>-5.2249999999999979</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>-4.7999999999999972</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>-4.3999999999999968</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.9999999999999964</c:v>
+                  <c:v>-4.3749999999999964</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-3.5999999999999961</c:v>
+                  <c:v>-3.9499999999999957</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-3.1999999999999957</c:v>
+                  <c:v>-3.524999999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-2.7999999999999954</c:v>
+                  <c:v>-3.0999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-2.399999999999995</c:v>
+                  <c:v>-2.6749999999999954</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.9999999999999947</c:v>
+                  <c:v>-2.2499999999999947</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.5999999999999943</c:v>
+                  <c:v>-1.824999999999994</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.199999999999994</c:v>
+                  <c:v>-1.3999999999999932</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.79999999999999361</c:v>
+                  <c:v>-0.97499999999999254</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.39999999999999325</c:v>
+                  <c:v>-0.54999999999999361</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>-0.12499999999999289</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.40000000000000746</c:v>
+                  <c:v>0.30000000000000782</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.80000000000000782</c:v>
+                  <c:v>0.72500000000000853</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.2000000000000082</c:v>
+                  <c:v>1.1500000000000092</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.6000000000000085</c:v>
+                  <c:v>1.5750000000000099</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2.0000000000000071</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.4000000000000057</c:v>
+                  <c:v>2.4250000000000043</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.8000000000000043</c:v>
+                  <c:v>2.850000000000005</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.2000000000000028</c:v>
+                  <c:v>3.2750000000000021</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.6000000000000014</c:v>
+                  <c:v>3.7000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4</c:v>
+                  <c:v>4.125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.3999999999999986</c:v>
+                  <c:v>4.5499999999999972</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.7999999999999972</c:v>
+                  <c:v>4.9749999999999979</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.1999999999999957</c:v>
+                  <c:v>5.399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.5999999999999943</c:v>
+                  <c:v>5.8249999999999957</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.9999999999999929</c:v>
+                  <c:v>6.2499999999999929</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3999999999999915</c:v>
+                  <c:v>6.6749999999999901</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.7999999999999901</c:v>
+                  <c:v>7.0999999999999908</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.1999999999999886</c:v>
+                  <c:v>7.5249999999999879</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.5999999999999872</c:v>
+                  <c:v>7.9499999999999851</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.9999999999999858</c:v>
+                  <c:v>8.3749999999999858</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.3999999999999844</c:v>
+                  <c:v>8.7999999999999829</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.7999999999999829</c:v>
+                  <c:v>9.2249999999999801</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.1999999999999815</c:v>
+                  <c:v>9.6499999999999808</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>9.5999999999999801</c:v>
+                  <c:v>10.074999999999978</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.9999999999999787</c:v>
+                  <c:v>10.499999999999979</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>10.399999999999977</c:v>
+                  <c:v>10.924999999999976</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.799999999999976</c:v>
+                  <c:v>11.349999999999973</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>11.199999999999974</c:v>
+                  <c:v>11.774999999999974</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>11.599999999999973</c:v>
+                  <c:v>12.199999999999971</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>11.999999999999972</c:v>
+                  <c:v>12.624999999999972</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>12.39999999999997</c:v>
+                  <c:v>13.049999999999969</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>12.799999999999969</c:v>
+                  <c:v>13.474999999999966</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>13.199999999999967</c:v>
+                  <c:v>13.899999999999967</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>13.599999999999966</c:v>
+                  <c:v>14.324999999999964</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>13.999999999999964</c:v>
+                  <c:v>14.749999999999961</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>14.399999999999963</c:v>
+                  <c:v>15.174999999999962</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>14.799999999999962</c:v>
+                  <c:v>15.599999999999959</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>15.19999999999996</c:v>
+                  <c:v>16.024999999999956</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>15.599999999999959</c:v>
+                  <c:v>16.449999999999957</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>15.999999999999957</c:v>
+                  <c:v>16.874999999999954</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>16.399999999999956</c:v>
+                  <c:v>17.299999999999955</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>16.799999999999955</c:v>
+                  <c:v>17.724999999999952</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>17.199999999999953</c:v>
+                  <c:v>18.149999999999949</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>17.599999999999952</c:v>
+                  <c:v>18.574999999999946</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>17.99999999999995</c:v>
+                  <c:v>18.99999999999995</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>18.399999999999949</c:v>
+                  <c:v>19.424999999999947</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>18.799999999999947</c:v>
+                  <c:v>19.849999999999945</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>19.199999999999946</c:v>
+                  <c:v>20.274999999999942</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>19.599999999999945</c:v>
+                  <c:v>20.699999999999939</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>19.999999999999943</c:v>
+                  <c:v>21.124999999999943</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>20.399999999999942</c:v>
+                  <c:v>21.54999999999994</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>20.79999999999994</c:v>
+                  <c:v>21.974999999999937</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>21.199999999999939</c:v>
+                  <c:v>22.399999999999935</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>21.599999999999937</c:v>
+                  <c:v>22.824999999999932</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>21.999999999999936</c:v>
+                  <c:v>23.249999999999929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2436,7 +2436,7 @@
   <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>221000</v>
+        <v>205000</v>
       </c>
       <c r="B2" s="1">
         <v>1000000</v>
@@ -2496,7 +2496,7 @@
         <v>1000000</v>
       </c>
       <c r="D2" s="1">
-        <v>2610000</v>
+        <v>2550000</v>
       </c>
       <c r="E2" s="1">
         <v>1.07</v>
@@ -2506,11 +2506,11 @@
       </c>
       <c r="G2" s="1">
         <f>((E2-F2)/(C2+D2))*D2 + F2</f>
-        <v>-1.7194736842105263</v>
+        <v>-1.7666197183098591</v>
       </c>
       <c r="H2" s="2">
         <f>G2*(1+B2/A2)</f>
-        <v>-9.4998975946653967</v>
+        <v>-10.384276880796977</v>
       </c>
       <c r="I2" s="2">
         <f>E2*17-28</f>
@@ -2521,15 +2521,15 @@
       </c>
       <c r="K2" s="1">
         <f>((J2-$F$2)/($C$2+$D$2))*$D$2 + $F$2</f>
-        <v>-2.1315789473684212</v>
+        <v>-2.1760563380281699</v>
       </c>
       <c r="L2" s="1">
         <f>MIN(10.3,MAX(-10.3,K2*(1+$B$2/$A$2)))</f>
         <v>-10.3</v>
       </c>
       <c r="M2">
-        <f>J2*4-14</f>
-        <v>-12</v>
+        <f>J2*4.25-15</f>
+        <v>-12.875</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2539,15 +2539,15 @@
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K66" si="0">((J3-$F$2)/($C$2+$D$2))*$D$2 + $F$2</f>
-        <v>-2.0592797783933516</v>
+        <v>-2.1042253521126764</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L66" si="1">MIN(10.3,MAX(-10.3,K3*(1+$B$2/$A$2)))</f>
         <v>-10.3</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="2">J3*4-14</f>
-        <v>-11.6</v>
+        <f t="shared" ref="M3:M66" si="2">J3*4.25-15</f>
+        <v>-12.45</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2557,7 +2557,7 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>-1.9869806094182829</v>
+        <v>-2.0323943661971837</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>-11.2</v>
+        <v>-12.025</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>-1.9146814404432133</v>
+        <v>-1.9605633802816902</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>-10.8</v>
+        <v>-11.6</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2593,15 +2593,15 @@
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>-1.8423822714681437</v>
+        <v>-1.8887323943661967</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>-10.178953635577392</v>
+        <v>-10.3</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
-        <v>-10.4</v>
+        <v>-11.175000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2611,15 +2611,15 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="0"/>
-        <v>-1.770083102493075</v>
+        <v>-1.816901408450704</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="1"/>
-        <v>-9.7795089056291609</v>
+        <v>-10.3</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>-10</v>
+        <v>-10.75</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2629,15 +2629,15 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6977839335180063</v>
+        <v>-1.7450704225352114</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="1"/>
-        <v>-9.3800641756809302</v>
+        <v>-10.257609069048437</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>-9.6000000000000014</v>
+        <v>-10.324999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
-        <v>-1.6254847645429376</v>
+        <v>-1.6732394366197187</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="1"/>
-        <v>-8.9806194457326995</v>
+        <v>-9.8353830298866392</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>-9.1999999999999993</v>
+        <v>-9.9</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2665,15 +2665,15 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>-1.5531855955678662</v>
+        <v>-1.6014084507042252</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="1"/>
-        <v>-8.5811747157844547</v>
+        <v>-9.4131569907248362</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>-8.8000000000000007</v>
+        <v>-9.4749999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2683,15 +2683,15 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4808864265927975</v>
+        <v>-1.5295774647887326</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="1"/>
-        <v>-8.181729985836224</v>
+        <v>-8.9909309515630369</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
-        <v>-8.3999999999999986</v>
+        <v>-9.0500000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2701,15 +2701,15 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="0"/>
-        <v>-1.4085872576177279</v>
+        <v>-1.457746478873239</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="1"/>
-        <v>-7.7822852558879898</v>
+        <v>-8.568704912401234</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
-        <v>-7.9999999999999991</v>
+        <v>-8.625</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2719,15 +2719,15 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="0"/>
-        <v>-1.3362880886426591</v>
+        <v>-1.3859154929577464</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="1"/>
-        <v>-7.3828405259397591</v>
+        <v>-8.1464788732394364</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
-        <v>-7.5999999999999988</v>
+        <v>-8.1999999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2737,15 +2737,15 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2639889196675895</v>
+        <v>-1.3140845070422529</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="1"/>
-        <v>-6.983395795991524</v>
+        <v>-7.7242528340776326</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>-7.1999999999999984</v>
+        <v>-7.7749999999999986</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2755,15 +2755,15 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1916897506925199</v>
+        <v>-1.2422535211267594</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="1"/>
-        <v>-6.5839510660432889</v>
+        <v>-7.3020267949158288</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>-6.799999999999998</v>
+        <v>-7.3499999999999979</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2773,15 +2773,15 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>-1.1193905817174512</v>
+        <v>-1.1704225352112676</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="1"/>
-        <v>-6.1845063360950583</v>
+        <v>-6.8798007557540366</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>-6.3999999999999977</v>
+        <v>-6.9249999999999972</v>
       </c>
     </row>
     <row r="17" spans="6:13" x14ac:dyDescent="0.25">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0470914127423825</v>
+        <v>-1.098591549295775</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="1"/>
-        <v>-5.7850616061468276</v>
+        <v>-6.4575747165922381</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>-5.9999999999999982</v>
+        <v>-6.4999999999999982</v>
       </c>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.25">
@@ -2809,15 +2809,15 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
-        <v>-0.97479224376731288</v>
+        <v>-1.0267605633802805</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="1"/>
-        <v>-5.3856168761985925</v>
+        <v>-6.035348677430429</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>-5.5999999999999979</v>
+        <v>-6.0749999999999975</v>
       </c>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.25">
@@ -2827,15 +2827,15 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="0"/>
-        <v>-0.90249307479224328</v>
+        <v>-0.95492957746478702</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="1"/>
-        <v>-4.9861721462503574</v>
+        <v>-5.6131226382686261</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
-        <v>-5.1999999999999975</v>
+        <v>-5.6499999999999968</v>
       </c>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.25">
@@ -2845,15 +2845,15 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>-0.83019390581717367</v>
+        <v>-0.88309859154929526</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="1"/>
-        <v>-4.5867274163021223</v>
+        <v>-5.190896599106833</v>
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
-        <v>-4.7999999999999972</v>
+        <v>-5.2249999999999979</v>
       </c>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.25">
@@ -2863,15 +2863,15 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>-0.75789473684210584</v>
+        <v>-0.81126760563380351</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="1"/>
-        <v>-4.187282686353897</v>
+        <v>-4.7686705599450399</v>
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
-        <v>-4.3999999999999968</v>
+        <v>-4.7999999999999972</v>
       </c>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.25">
@@ -2881,15 +2881,15 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
-        <v>-0.68559556786703624</v>
+        <v>-0.73943661971830998</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="1"/>
-        <v>-3.7878379564056619</v>
+        <v>-4.346444520783237</v>
       </c>
       <c r="M22">
         <f t="shared" si="2"/>
-        <v>-3.9999999999999964</v>
+        <v>-4.3749999999999964</v>
       </c>
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.25">
@@ -2899,15 +2899,15 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
-        <v>-0.61329639889196486</v>
+        <v>-0.66760563380281646</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="1"/>
-        <v>-3.3883932264574166</v>
+        <v>-3.9242184816214332</v>
       </c>
       <c r="M23">
         <f t="shared" si="2"/>
-        <v>-3.5999999999999961</v>
+        <v>-3.9499999999999957</v>
       </c>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.25">
@@ -2917,15 +2917,15 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
-        <v>-0.54099722991689703</v>
+        <v>-0.59577464788732293</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="1"/>
-        <v>-2.9889484965091913</v>
+        <v>-3.5019924424596298</v>
       </c>
       <c r="M24">
         <f t="shared" si="2"/>
-        <v>-3.1999999999999957</v>
+        <v>-3.524999999999995</v>
       </c>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.25">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
-        <v>-0.46869806094182742</v>
+        <v>-0.5239436619718294</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="1"/>
-        <v>-2.5895037665609562</v>
+        <v>-3.0797664032978265</v>
       </c>
       <c r="M25">
         <f t="shared" si="2"/>
-        <v>-2.7999999999999954</v>
+        <v>-3.0999999999999943</v>
       </c>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.25">
@@ -2953,15 +2953,15 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
-        <v>-0.39639889196675782</v>
+        <v>-0.45211267605633587</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="1"/>
-        <v>-2.1900590366127206</v>
+        <v>-2.6575403641360231</v>
       </c>
       <c r="M26">
         <f t="shared" si="2"/>
-        <v>-2.399999999999995</v>
+        <v>-2.6749999999999954</v>
       </c>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.25">
@@ -2971,15 +2971,15 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
-        <v>-0.32409972299168821</v>
+        <v>-0.38028169014084412</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="1"/>
-        <v>-1.7906143066644855</v>
+        <v>-2.23531432497423</v>
       </c>
       <c r="M27">
         <f t="shared" si="2"/>
-        <v>-1.9999999999999947</v>
+        <v>-2.2499999999999947</v>
       </c>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.25">
@@ -2989,15 +2989,15 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
-        <v>-0.25180055401662038</v>
+        <v>-0.30845070422535059</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="1"/>
-        <v>-1.3911695767162602</v>
+        <v>-1.8130882858124266</v>
       </c>
       <c r="M28">
         <f t="shared" si="2"/>
-        <v>-1.5999999999999943</v>
+        <v>-1.824999999999994</v>
       </c>
     </row>
     <row r="29" spans="6:13" x14ac:dyDescent="0.25">
@@ -3006,7 +3006,11 @@
       </c>
       <c r="G29" s="2">
         <f>(L17-L12)/0.5</f>
-        <v>3.9944472994823244</v>
+        <v>4.2222603916179917</v>
+      </c>
+      <c r="H29">
+        <f>(M17 - M12)/0.5</f>
+        <v>4.2500000000000036</v>
       </c>
       <c r="J29">
         <f t="shared" si="3"/>
@@ -3014,15 +3018,15 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>-0.17950138504155078</v>
+        <v>-0.23661971830985884</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="1"/>
-        <v>-0.99172484676802486</v>
+        <v>-1.3908622466506337</v>
       </c>
       <c r="M29">
         <f t="shared" si="2"/>
-        <v>-1.199999999999994</v>
+        <v>-1.3999999999999932</v>
       </c>
     </row>
     <row r="30" spans="6:13" x14ac:dyDescent="0.25">
@@ -3032,15 +3036,15 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
-        <v>-0.10720221606648117</v>
+        <v>-0.16478873239436531</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="1"/>
-        <v>-0.59228011681978965</v>
+        <v>-0.96863620748883028</v>
       </c>
       <c r="M30">
         <f t="shared" si="2"/>
-        <v>-0.79999999999999361</v>
+        <v>-0.97499999999999254</v>
       </c>
     </row>
     <row r="31" spans="6:13" x14ac:dyDescent="0.25">
@@ -3050,15 +3054,15 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
-        <v>-3.4903047091411565E-2</v>
+        <v>-9.2957746478871783E-2</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="1"/>
-        <v>-0.19283538687155438</v>
+        <v>-0.54641016832702682</v>
       </c>
       <c r="M31">
         <f t="shared" si="2"/>
-        <v>-0.39999999999999325</v>
+        <v>-0.54999999999999361</v>
       </c>
     </row>
     <row r="32" spans="6:13" x14ac:dyDescent="0.25">
@@ -3068,15 +3072,15 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
-        <v>3.739612188365804E-2</v>
+        <v>-2.1126760563378255E-2</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="1"/>
-        <v>0.20660934307668083</v>
+        <v>-0.12418412916522339</v>
       </c>
       <c r="M32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.12499999999999289</v>
       </c>
     </row>
     <row r="33" spans="10:13" x14ac:dyDescent="0.25">
@@ -3086,15 +3090,15 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" si="0"/>
-        <v>0.10969529085872765</v>
+        <v>5.0704225352113497E-2</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="1"/>
-        <v>0.6060540730249161</v>
+        <v>0.2980419099965696</v>
       </c>
       <c r="M33">
         <f t="shared" si="2"/>
-        <v>0.40000000000000746</v>
+        <v>0.30000000000000782</v>
       </c>
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.25">
@@ -3104,15 +3108,15 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" si="0"/>
-        <v>0.18199445983379725</v>
+        <v>0.1225352112676088</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="1"/>
-        <v>1.0054988029731513</v>
+        <v>0.72026794915838344</v>
       </c>
       <c r="M34">
         <f t="shared" si="2"/>
-        <v>0.80000000000000782</v>
+        <v>0.72500000000000853</v>
       </c>
     </row>
     <row r="35" spans="10:13" x14ac:dyDescent="0.25">
@@ -3122,15 +3126,15 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="0"/>
-        <v>0.25429362880886686</v>
+        <v>0.19436619718310055</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="1"/>
-        <v>1.4049435329213866</v>
+        <v>1.1424939883201763</v>
       </c>
       <c r="M35">
         <f t="shared" si="2"/>
-        <v>1.2000000000000082</v>
+        <v>1.1500000000000092</v>
       </c>
     </row>
     <row r="36" spans="10:13" x14ac:dyDescent="0.25">
@@ -3140,15 +3144,15 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="0"/>
-        <v>0.32659279778393469</v>
+        <v>0.2661971830985923</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="1"/>
-        <v>1.804388262869612</v>
+        <v>1.5647200274819695</v>
       </c>
       <c r="M36">
         <f t="shared" si="2"/>
-        <v>1.6000000000000085</v>
+        <v>1.5750000000000099</v>
       </c>
     </row>
     <row r="37" spans="10:13" x14ac:dyDescent="0.25">
@@ -3158,11 +3162,11 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="0"/>
-        <v>0.39889196675900429</v>
+        <v>0.33802816901408583</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="1"/>
-        <v>2.2038329928178473</v>
+        <v>1.9869460666437728</v>
       </c>
       <c r="M37">
         <f t="shared" si="2"/>
@@ -3176,15 +3180,15 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="0"/>
-        <v>0.4711911357340739</v>
+        <v>0.40985915492957936</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="1"/>
-        <v>2.6032777227660824</v>
+        <v>2.4091721058055762</v>
       </c>
       <c r="M38">
         <f t="shared" si="2"/>
-        <v>2.4000000000000057</v>
+        <v>2.4250000000000043</v>
       </c>
     </row>
     <row r="39" spans="10:13" x14ac:dyDescent="0.25">
@@ -3194,15 +3198,15 @@
       </c>
       <c r="K39" s="1">
         <f t="shared" si="0"/>
-        <v>0.54349030470914172</v>
+        <v>0.48169014084507111</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" si="1"/>
-        <v>3.0027224527143077</v>
+        <v>2.8313981449673693</v>
       </c>
       <c r="M39">
         <f t="shared" si="2"/>
-        <v>2.8000000000000043</v>
+        <v>2.850000000000005</v>
       </c>
     </row>
     <row r="40" spans="10:13" x14ac:dyDescent="0.25">
@@ -3212,15 +3216,15 @@
       </c>
       <c r="K40" s="1">
         <f t="shared" si="0"/>
-        <v>0.61578947368421133</v>
+        <v>0.55352112676056286</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="1"/>
-        <v>3.4021671826625433</v>
+        <v>3.253624184129162</v>
       </c>
       <c r="M40">
         <f t="shared" si="2"/>
-        <v>3.2000000000000028</v>
+        <v>3.2750000000000021</v>
       </c>
     </row>
     <row r="41" spans="10:13" x14ac:dyDescent="0.25">
@@ -3230,15 +3234,15 @@
       </c>
       <c r="K41" s="1">
         <f t="shared" si="0"/>
-        <v>0.68808864265927916</v>
+        <v>0.62535211267605639</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="1"/>
-        <v>3.8016119126107686</v>
+        <v>3.6758502232909658</v>
       </c>
       <c r="M41">
         <f t="shared" si="2"/>
-        <v>3.6000000000000014</v>
+        <v>3.7000000000000028</v>
       </c>
     </row>
     <row r="42" spans="10:13" x14ac:dyDescent="0.25">
@@ -3248,15 +3252,15 @@
       </c>
       <c r="K42" s="1">
         <f t="shared" si="0"/>
-        <v>0.76038781163434876</v>
+        <v>0.69718309859154992</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="1"/>
-        <v>4.2010566425590037</v>
+        <v>4.0980762624527687</v>
       </c>
       <c r="M42">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.125</v>
       </c>
     </row>
     <row r="43" spans="10:13" x14ac:dyDescent="0.25">
@@ -3266,15 +3270,15 @@
       </c>
       <c r="K43" s="1">
         <f t="shared" si="0"/>
-        <v>0.83268698060941837</v>
+        <v>0.76901408450704345</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="1"/>
-        <v>4.6005013725072388</v>
+        <v>4.5203023016145725</v>
       </c>
       <c r="M43">
         <f t="shared" si="2"/>
-        <v>4.3999999999999986</v>
+        <v>4.5499999999999972</v>
       </c>
     </row>
     <row r="44" spans="10:13" x14ac:dyDescent="0.25">
@@ -3284,15 +3288,15 @@
       </c>
       <c r="K44" s="1">
         <f t="shared" si="0"/>
-        <v>0.9049861495844862</v>
+        <v>0.84084507042253342</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="1"/>
-        <v>4.9999461024554641</v>
+        <v>4.9425283407763549</v>
       </c>
       <c r="M44">
         <f t="shared" si="2"/>
-        <v>4.7999999999999972</v>
+        <v>4.9749999999999979</v>
       </c>
     </row>
     <row r="45" spans="10:13" x14ac:dyDescent="0.25">
@@ -3302,15 +3306,15 @@
       </c>
       <c r="K45" s="1">
         <f t="shared" si="0"/>
-        <v>0.9772853185595558</v>
+        <v>0.91267605633802695</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="1"/>
-        <v>5.3993908324036992</v>
+        <v>5.3647543799381587</v>
       </c>
       <c r="M45">
         <f t="shared" si="2"/>
-        <v>5.1999999999999957</v>
+        <v>5.399999999999995</v>
       </c>
     </row>
     <row r="46" spans="10:13" x14ac:dyDescent="0.25">
@@ -3320,15 +3324,15 @@
       </c>
       <c r="K46" s="1">
         <f t="shared" si="0"/>
-        <v>1.0495844875346254</v>
+        <v>0.9845070422535187</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="1"/>
-        <v>5.7988355623519352</v>
+        <v>5.786980419099951</v>
       </c>
       <c r="M46">
         <f t="shared" si="2"/>
-        <v>5.5999999999999943</v>
+        <v>5.8249999999999957</v>
       </c>
     </row>
     <row r="47" spans="10:13" x14ac:dyDescent="0.25">
@@ -3338,15 +3342,15 @@
       </c>
       <c r="K47" s="1">
         <f t="shared" si="0"/>
-        <v>1.1218836565096932</v>
+        <v>1.0563380281690122</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" si="1"/>
-        <v>6.1982802923001605</v>
+        <v>6.2092064582617548</v>
       </c>
       <c r="M47">
         <f t="shared" si="2"/>
-        <v>5.9999999999999929</v>
+        <v>6.2499999999999929</v>
       </c>
     </row>
     <row r="48" spans="10:13" x14ac:dyDescent="0.25">
@@ -3356,15 +3360,15 @@
       </c>
       <c r="K48" s="1">
         <f t="shared" si="0"/>
-        <v>1.1941828254847628</v>
+        <v>1.1281690140845058</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="1"/>
-        <v>6.5977250222483956</v>
+        <v>6.6314324974235586</v>
       </c>
       <c r="M48">
         <f t="shared" si="2"/>
-        <v>6.3999999999999915</v>
+        <v>6.6749999999999901</v>
       </c>
     </row>
     <row r="49" spans="10:13" x14ac:dyDescent="0.25">
@@ -3374,15 +3378,15 @@
       </c>
       <c r="K49" s="1">
         <f t="shared" si="0"/>
-        <v>1.2664819944598307</v>
+        <v>1.1999999999999975</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" si="1"/>
-        <v>6.997169752196621</v>
+        <v>7.0536585365853508</v>
       </c>
       <c r="M49">
         <f t="shared" si="2"/>
-        <v>6.7999999999999901</v>
+        <v>7.0999999999999908</v>
       </c>
     </row>
     <row r="50" spans="10:13" x14ac:dyDescent="0.25">
@@ -3392,15 +3396,15 @@
       </c>
       <c r="K50" s="1">
         <f t="shared" si="0"/>
-        <v>1.3387811634349003</v>
+        <v>1.271830985915491</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="1"/>
-        <v>7.3966144821448561</v>
+        <v>7.4758845757471546</v>
       </c>
       <c r="M50">
         <f t="shared" si="2"/>
-        <v>7.1999999999999886</v>
+        <v>7.5249999999999879</v>
       </c>
     </row>
     <row r="51" spans="10:13" x14ac:dyDescent="0.25">
@@ -3410,15 +3414,15 @@
       </c>
       <c r="K51" s="1">
         <f t="shared" si="0"/>
-        <v>1.4110803324099699</v>
+        <v>1.3436619718309846</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" si="1"/>
-        <v>7.7960592120930912</v>
+        <v>7.8981106149089575</v>
       </c>
       <c r="M51">
         <f t="shared" si="2"/>
-        <v>7.5999999999999872</v>
+        <v>7.9499999999999851</v>
       </c>
     </row>
     <row r="52" spans="10:13" x14ac:dyDescent="0.25">
@@ -3428,15 +3432,15 @@
       </c>
       <c r="K52" s="1">
         <f t="shared" si="0"/>
-        <v>1.4833795013850377</v>
+        <v>1.4154929577464763</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="1"/>
-        <v>8.1955039420413165</v>
+        <v>8.3203366540707506</v>
       </c>
       <c r="M52">
         <f t="shared" si="2"/>
-        <v>7.9999999999999858</v>
+        <v>8.3749999999999858</v>
       </c>
     </row>
     <row r="53" spans="10:13" x14ac:dyDescent="0.25">
@@ -3446,15 +3450,15 @@
       </c>
       <c r="K53" s="1">
         <f t="shared" si="0"/>
-        <v>1.5556786703601073</v>
+        <v>1.4873239436619698</v>
       </c>
       <c r="L53" s="1">
         <f t="shared" si="1"/>
-        <v>8.5949486719895525</v>
+        <v>8.7425626932325535</v>
       </c>
       <c r="M53">
         <f t="shared" si="2"/>
-        <v>8.3999999999999844</v>
+        <v>8.7999999999999829</v>
       </c>
     </row>
     <row r="54" spans="10:13" x14ac:dyDescent="0.25">
@@ -3464,15 +3468,15 @@
       </c>
       <c r="K54" s="1">
         <f t="shared" si="0"/>
-        <v>1.6279778393351769</v>
+        <v>1.5591549295774634</v>
       </c>
       <c r="L54" s="1">
         <f t="shared" si="1"/>
-        <v>8.9943934019377867</v>
+        <v>9.1647887323943582</v>
       </c>
       <c r="M54">
         <f t="shared" si="2"/>
-        <v>8.7999999999999829</v>
+        <v>9.2249999999999801</v>
       </c>
     </row>
     <row r="55" spans="10:13" x14ac:dyDescent="0.25">
@@ -3482,15 +3486,15 @@
       </c>
       <c r="K55" s="1">
         <f t="shared" si="0"/>
-        <v>1.7002770083102448</v>
+        <v>1.6309859154929534</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="1"/>
-        <v>9.393838131886012</v>
+        <v>9.5870147715561398</v>
       </c>
       <c r="M55">
         <f t="shared" si="2"/>
-        <v>9.1999999999999815</v>
+        <v>9.6499999999999808</v>
       </c>
     </row>
     <row r="56" spans="10:13" x14ac:dyDescent="0.25">
@@ -3500,15 +3504,15 @@
       </c>
       <c r="K56" s="1">
         <f t="shared" si="0"/>
-        <v>1.7725761772853144</v>
+        <v>1.7028169014084469</v>
       </c>
       <c r="L56" s="1">
         <f t="shared" si="1"/>
-        <v>9.793282861834248</v>
+        <v>10.009240810717944</v>
       </c>
       <c r="M56">
         <f t="shared" si="2"/>
-        <v>9.5999999999999801</v>
+        <v>10.074999999999978</v>
       </c>
     </row>
     <row r="57" spans="10:13" x14ac:dyDescent="0.25">
@@ -3518,15 +3522,15 @@
       </c>
       <c r="K57" s="1">
         <f t="shared" si="0"/>
-        <v>1.8448753462603822</v>
+        <v>1.7746478873239386</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" si="1"/>
-        <v>10.192727591782473</v>
+        <v>10.3</v>
       </c>
       <c r="M57">
         <f t="shared" si="2"/>
-        <v>9.9999999999999787</v>
+        <v>10.499999999999979</v>
       </c>
     </row>
     <row r="58" spans="10:13" x14ac:dyDescent="0.25">
@@ -3536,7 +3540,7 @@
       </c>
       <c r="K58" s="1">
         <f t="shared" si="0"/>
-        <v>1.9171745152354518</v>
+        <v>1.8464788732394322</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" si="1"/>
@@ -3544,7 +3548,7 @@
       </c>
       <c r="M58">
         <f t="shared" si="2"/>
-        <v>10.399999999999977</v>
+        <v>10.924999999999976</v>
       </c>
     </row>
     <row r="59" spans="10:13" x14ac:dyDescent="0.25">
@@ -3554,7 +3558,7 @@
       </c>
       <c r="K59" s="1">
         <f t="shared" si="0"/>
-        <v>1.9894736842105232</v>
+        <v>1.9183098591549257</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" si="1"/>
@@ -3562,7 +3566,7 @@
       </c>
       <c r="M59">
         <f t="shared" si="2"/>
-        <v>10.799999999999976</v>
+        <v>11.349999999999973</v>
       </c>
     </row>
     <row r="60" spans="10:13" x14ac:dyDescent="0.25">
@@ -3572,7 +3576,7 @@
       </c>
       <c r="K60" s="1">
         <f t="shared" si="0"/>
-        <v>2.0617728531855928</v>
+        <v>1.9901408450704174</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" si="1"/>
@@ -3580,7 +3584,7 @@
       </c>
       <c r="M60">
         <f t="shared" si="2"/>
-        <v>11.199999999999974</v>
+        <v>11.774999999999974</v>
       </c>
     </row>
     <row r="61" spans="10:13" x14ac:dyDescent="0.25">
@@ -3590,7 +3594,7 @@
       </c>
       <c r="K61" s="1">
         <f t="shared" si="0"/>
-        <v>2.1340720221606606</v>
+        <v>2.061971830985911</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" si="1"/>
@@ -3598,7 +3602,7 @@
       </c>
       <c r="M61">
         <f t="shared" si="2"/>
-        <v>11.599999999999973</v>
+        <v>12.199999999999971</v>
       </c>
     </row>
     <row r="62" spans="10:13" x14ac:dyDescent="0.25">
@@ -3608,7 +3612,7 @@
       </c>
       <c r="K62" s="1">
         <f t="shared" si="0"/>
-        <v>2.2063711911357302</v>
+        <v>2.1338028169014045</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="1"/>
@@ -3616,7 +3620,7 @@
       </c>
       <c r="M62">
         <f t="shared" si="2"/>
-        <v>11.999999999999972</v>
+        <v>12.624999999999972</v>
       </c>
     </row>
     <row r="63" spans="10:13" x14ac:dyDescent="0.25">
@@ -3626,7 +3630,7 @@
       </c>
       <c r="K63" s="1">
         <f t="shared" si="0"/>
-        <v>2.278670360110798</v>
+        <v>2.2056338028168962</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" si="1"/>
@@ -3634,7 +3638,7 @@
       </c>
       <c r="M63">
         <f t="shared" si="2"/>
-        <v>12.39999999999997</v>
+        <v>13.049999999999969</v>
       </c>
     </row>
     <row r="64" spans="10:13" x14ac:dyDescent="0.25">
@@ -3644,7 +3648,7 @@
       </c>
       <c r="K64" s="1">
         <f t="shared" si="0"/>
-        <v>2.3509695290858676</v>
+        <v>2.277464788732388</v>
       </c>
       <c r="L64" s="1">
         <f t="shared" si="1"/>
@@ -3652,7 +3656,7 @@
       </c>
       <c r="M64">
         <f t="shared" si="2"/>
-        <v>12.799999999999969</v>
+        <v>13.474999999999966</v>
       </c>
     </row>
     <row r="65" spans="10:13" x14ac:dyDescent="0.25">
@@ -3662,7 +3666,7 @@
       </c>
       <c r="K65" s="1">
         <f t="shared" si="0"/>
-        <v>2.4232686980609373</v>
+        <v>2.3492957746478815</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" si="1"/>
@@ -3670,7 +3674,7 @@
       </c>
       <c r="M65">
         <f t="shared" si="2"/>
-        <v>13.199999999999967</v>
+        <v>13.899999999999967</v>
       </c>
     </row>
     <row r="66" spans="10:13" x14ac:dyDescent="0.25">
@@ -3680,7 +3684,7 @@
       </c>
       <c r="K66" s="1">
         <f t="shared" si="0"/>
-        <v>2.4955678670360051</v>
+        <v>2.4211267605633733</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" si="1"/>
@@ -3688,7 +3692,7 @@
       </c>
       <c r="M66">
         <f t="shared" si="2"/>
-        <v>13.599999999999966</v>
+        <v>14.324999999999964</v>
       </c>
     </row>
     <row r="67" spans="10:13" x14ac:dyDescent="0.25">
@@ -3698,15 +3702,15 @@
       </c>
       <c r="K67" s="1">
         <f t="shared" ref="K67:K87" si="4">((J67-$F$2)/($C$2+$D$2))*$D$2 + $F$2</f>
-        <v>2.5678670360110747</v>
+        <v>2.4929577464788668</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" ref="L67:L87" si="5">MIN(10.3,MAX(-10.3,K67*(1+$B$2/$A$2)))</f>
         <v>10.3</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M87" si="6">J67*4-14</f>
-        <v>13.999999999999964</v>
+        <f t="shared" ref="M67:M87" si="6">J67*4.25-15</f>
+        <v>14.749999999999961</v>
       </c>
     </row>
     <row r="68" spans="10:13" x14ac:dyDescent="0.25">
@@ -3716,7 +3720,7 @@
       </c>
       <c r="K68" s="1">
         <f t="shared" si="4"/>
-        <v>2.6401662049861443</v>
+        <v>2.5647887323943586</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" si="5"/>
@@ -3724,7 +3728,7 @@
       </c>
       <c r="M68">
         <f t="shared" si="6"/>
-        <v>14.399999999999963</v>
+        <v>15.174999999999962</v>
       </c>
     </row>
     <row r="69" spans="10:13" x14ac:dyDescent="0.25">
@@ -3734,7 +3738,7 @@
       </c>
       <c r="K69" s="1">
         <f t="shared" si="4"/>
-        <v>2.7124653739612103</v>
+        <v>2.6366197183098521</v>
       </c>
       <c r="L69" s="1">
         <f t="shared" si="5"/>
@@ -3742,7 +3746,7 @@
       </c>
       <c r="M69">
         <f t="shared" si="6"/>
-        <v>14.799999999999962</v>
+        <v>15.599999999999959</v>
       </c>
     </row>
     <row r="70" spans="10:13" x14ac:dyDescent="0.25">
@@ -3752,7 +3756,7 @@
       </c>
       <c r="K70" s="1">
         <f t="shared" si="4"/>
-        <v>2.7847645429362817</v>
+        <v>2.7084507042253456</v>
       </c>
       <c r="L70" s="1">
         <f t="shared" si="5"/>
@@ -3760,7 +3764,7 @@
       </c>
       <c r="M70">
         <f t="shared" si="6"/>
-        <v>15.19999999999996</v>
+        <v>16.024999999999956</v>
       </c>
     </row>
     <row r="71" spans="10:13" x14ac:dyDescent="0.25">
@@ -3770,7 +3774,7 @@
       </c>
       <c r="K71" s="1">
         <f t="shared" si="4"/>
-        <v>2.8570637119113496</v>
+        <v>2.7802816901408391</v>
       </c>
       <c r="L71" s="1">
         <f t="shared" si="5"/>
@@ -3778,7 +3782,7 @@
       </c>
       <c r="M71">
         <f t="shared" si="6"/>
-        <v>15.599999999999959</v>
+        <v>16.449999999999957</v>
       </c>
     </row>
     <row r="72" spans="10:13" x14ac:dyDescent="0.25">
@@ -3788,7 +3792,7 @@
       </c>
       <c r="K72" s="1">
         <f t="shared" si="4"/>
-        <v>2.9293628808864192</v>
+        <v>2.8521126760563309</v>
       </c>
       <c r="L72" s="1">
         <f t="shared" si="5"/>
@@ -3796,7 +3800,7 @@
       </c>
       <c r="M72">
         <f t="shared" si="6"/>
-        <v>15.999999999999957</v>
+        <v>16.874999999999954</v>
       </c>
     </row>
     <row r="73" spans="10:13" x14ac:dyDescent="0.25">
@@ -3806,7 +3810,7 @@
       </c>
       <c r="K73" s="1">
         <f t="shared" si="4"/>
-        <v>3.0016620498614852</v>
+        <v>2.9239436619718209</v>
       </c>
       <c r="L73" s="1">
         <f t="shared" si="5"/>
@@ -3814,7 +3818,7 @@
       </c>
       <c r="M73">
         <f t="shared" si="6"/>
-        <v>16.399999999999956</v>
+        <v>17.299999999999955</v>
       </c>
     </row>
     <row r="74" spans="10:13" x14ac:dyDescent="0.25">
@@ -3824,7 +3828,7 @@
       </c>
       <c r="K74" s="1">
         <f t="shared" si="4"/>
-        <v>3.0739612188365566</v>
+        <v>2.9957746478873144</v>
       </c>
       <c r="L74" s="1">
         <f t="shared" si="5"/>
@@ -3832,7 +3836,7 @@
       </c>
       <c r="M74">
         <f t="shared" si="6"/>
-        <v>16.799999999999955</v>
+        <v>17.724999999999952</v>
       </c>
     </row>
     <row r="75" spans="10:13" x14ac:dyDescent="0.25">
@@ -3842,7 +3846,7 @@
       </c>
       <c r="K75" s="1">
         <f t="shared" si="4"/>
-        <v>3.1462603878116262</v>
+        <v>3.0676056338028115</v>
       </c>
       <c r="L75" s="1">
         <f t="shared" si="5"/>
@@ -3850,7 +3854,7 @@
       </c>
       <c r="M75">
         <f t="shared" si="6"/>
-        <v>17.199999999999953</v>
+        <v>18.149999999999949</v>
       </c>
     </row>
     <row r="76" spans="10:13" x14ac:dyDescent="0.25">
@@ -3860,7 +3864,7 @@
       </c>
       <c r="K76" s="1">
         <f t="shared" si="4"/>
-        <v>3.2185595567866958</v>
+        <v>3.1394366197183015</v>
       </c>
       <c r="L76" s="1">
         <f t="shared" si="5"/>
@@ -3868,7 +3872,7 @@
       </c>
       <c r="M76">
         <f t="shared" si="6"/>
-        <v>17.599999999999952</v>
+        <v>18.574999999999946</v>
       </c>
     </row>
     <row r="77" spans="10:13" x14ac:dyDescent="0.25">
@@ -3878,7 +3882,7 @@
       </c>
       <c r="K77" s="1">
         <f t="shared" si="4"/>
-        <v>3.2908587257617619</v>
+        <v>3.2112676056337932</v>
       </c>
       <c r="L77" s="1">
         <f t="shared" si="5"/>
@@ -3886,7 +3890,7 @@
       </c>
       <c r="M77">
         <f t="shared" si="6"/>
-        <v>17.99999999999995</v>
+        <v>18.99999999999995</v>
       </c>
     </row>
     <row r="78" spans="10:13" x14ac:dyDescent="0.25">
@@ -3896,7 +3900,7 @@
       </c>
       <c r="K78" s="1">
         <f t="shared" si="4"/>
-        <v>3.3631578947368332</v>
+        <v>3.2830985915492867</v>
       </c>
       <c r="L78" s="1">
         <f t="shared" si="5"/>
@@ -3904,7 +3908,7 @@
       </c>
       <c r="M78">
         <f t="shared" si="6"/>
-        <v>18.399999999999949</v>
+        <v>19.424999999999947</v>
       </c>
     </row>
     <row r="79" spans="10:13" x14ac:dyDescent="0.25">
@@ -3914,7 +3918,7 @@
       </c>
       <c r="K79" s="1">
         <f t="shared" si="4"/>
-        <v>3.4354570637119046</v>
+        <v>3.3549295774647803</v>
       </c>
       <c r="L79" s="1">
         <f t="shared" si="5"/>
@@ -3922,7 +3926,7 @@
       </c>
       <c r="M79">
         <f t="shared" si="6"/>
-        <v>18.799999999999947</v>
+        <v>19.849999999999945</v>
       </c>
     </row>
     <row r="80" spans="10:13" x14ac:dyDescent="0.25">
@@ -3932,7 +3936,7 @@
       </c>
       <c r="K80" s="1">
         <f t="shared" si="4"/>
-        <v>3.5077562326869707</v>
+        <v>3.426760563380272</v>
       </c>
       <c r="L80" s="1">
         <f t="shared" si="5"/>
@@ -3940,7 +3944,7 @@
       </c>
       <c r="M80">
         <f t="shared" si="6"/>
-        <v>19.199999999999946</v>
+        <v>20.274999999999942</v>
       </c>
     </row>
     <row r="81" spans="10:13" x14ac:dyDescent="0.25">
@@ -3950,7 +3954,7 @@
       </c>
       <c r="K81" s="1">
         <f t="shared" si="4"/>
-        <v>3.5800554016620367</v>
+        <v>3.4985915492957638</v>
       </c>
       <c r="L81" s="1">
         <f t="shared" si="5"/>
@@ -3958,7 +3962,7 @@
       </c>
       <c r="M81">
         <f t="shared" si="6"/>
-        <v>19.599999999999945</v>
+        <v>20.699999999999939</v>
       </c>
     </row>
     <row r="82" spans="10:13" x14ac:dyDescent="0.25">
@@ -3968,7 +3972,7 @@
       </c>
       <c r="K82" s="1">
         <f t="shared" si="4"/>
-        <v>3.6523545706371081</v>
+        <v>3.5704225352112573</v>
       </c>
       <c r="L82" s="1">
         <f t="shared" si="5"/>
@@ -3976,7 +3980,7 @@
       </c>
       <c r="M82">
         <f t="shared" si="6"/>
-        <v>19.999999999999943</v>
+        <v>21.124999999999943</v>
       </c>
     </row>
     <row r="83" spans="10:13" x14ac:dyDescent="0.25">
@@ -3986,7 +3990,7 @@
       </c>
       <c r="K83" s="1">
         <f t="shared" si="4"/>
-        <v>3.7246537396121795</v>
+        <v>3.6422535211267526</v>
       </c>
       <c r="L83" s="1">
         <f t="shared" si="5"/>
@@ -3994,7 +3998,7 @@
       </c>
       <c r="M83">
         <f t="shared" si="6"/>
-        <v>20.399999999999942</v>
+        <v>21.54999999999994</v>
       </c>
     </row>
     <row r="84" spans="10:13" x14ac:dyDescent="0.25">
@@ -4004,7 +4008,7 @@
       </c>
       <c r="K84" s="1">
         <f t="shared" si="4"/>
-        <v>3.7969529085872473</v>
+        <v>3.7140845070422444</v>
       </c>
       <c r="L84" s="1">
         <f t="shared" si="5"/>
@@ -4012,7 +4016,7 @@
       </c>
       <c r="M84">
         <f t="shared" si="6"/>
-        <v>20.79999999999994</v>
+        <v>21.974999999999937</v>
       </c>
     </row>
     <row r="85" spans="10:13" x14ac:dyDescent="0.25">
@@ -4022,7 +4026,7 @@
       </c>
       <c r="K85" s="1">
         <f t="shared" si="4"/>
-        <v>3.8692520775623152</v>
+        <v>3.7859154929577343</v>
       </c>
       <c r="L85" s="1">
         <f t="shared" si="5"/>
@@ -4030,7 +4034,7 @@
       </c>
       <c r="M85">
         <f t="shared" si="6"/>
-        <v>21.199999999999939</v>
+        <v>22.399999999999935</v>
       </c>
     </row>
     <row r="86" spans="10:13" x14ac:dyDescent="0.25">
@@ -4040,7 +4044,7 @@
       </c>
       <c r="K86" s="1">
         <f t="shared" si="4"/>
-        <v>3.9415512465373848</v>
+        <v>3.8577464788732279</v>
       </c>
       <c r="L86" s="1">
         <f t="shared" si="5"/>
@@ -4048,7 +4052,7 @@
       </c>
       <c r="M86">
         <f t="shared" si="6"/>
-        <v>21.599999999999937</v>
+        <v>22.824999999999932</v>
       </c>
     </row>
     <row r="87" spans="10:13" x14ac:dyDescent="0.25">
@@ -4058,7 +4062,7 @@
       </c>
       <c r="K87" s="1">
         <f t="shared" si="4"/>
-        <v>4.0138504155124561</v>
+        <v>3.9295774647887214</v>
       </c>
       <c r="L87" s="1">
         <f t="shared" si="5"/>
@@ -4066,7 +4070,7 @@
       </c>
       <c r="M87">
         <f t="shared" si="6"/>
-        <v>21.999999999999936</v>
+        <v>23.249999999999929</v>
       </c>
     </row>
   </sheetData>
